--- a/Stocks/CESC.xlsx
+++ b/Stocks/CESC.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>953.93333333333339</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>941.98578693634624</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>915.10891445085133</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>UP</v>
       </c>
       <c r="N67">
         <v>86.235301028314083</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>6.1499999999999773</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>16.850000000000023</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.36498516320474594</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>904.25785173977465</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>12.737942091291302</v>
       </c>
       <c r="Y67">
         <v>5.5878524794662416</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>965</v>
+      </c>
+      <c r="D83">
+        <v>1026.6500000000001</v>
+      </c>
+      <c r="E83">
+        <v>960</v>
+      </c>
+      <c r="F83">
+        <v>1023.55</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>1003.4</v>
+      </c>
+      <c r="H83">
+        <v>974.0167323168987</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>969.52500135728019</v>
+      </c>
+      <c r="K83">
+        <v>936.10249509241703</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N83">
+        <v>86.326179855399175</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>63.549999999999955</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>66.650000000000091</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.95348837209302129</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V83">
+        <v>954.1070852223545</v>
+      </c>
+      <c r="W83">
+        <v>938.77084246278571</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>15.33624275956879</v>
+      </c>
+      <c r="Y83">
+        <v>11.904373156147606</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD83">
+        <f t="shared" si="35"/>
+        <v>967.6</v>
+      </c>
+      <c r="AE83">
+        <f t="shared" si="36"/>
+        <v>985.45</v>
+      </c>
+      <c r="AF83">
+        <f t="shared" si="37"/>
+        <v>993.35</v>
+      </c>
+      <c r="AG83">
+        <f t="shared" si="38"/>
+        <v>1001.2</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>1034.2</v>
+      </c>
+      <c r="D84">
+        <v>1034.2</v>
+      </c>
+      <c r="E84">
+        <v>992.55</v>
+      </c>
+      <c r="F84">
+        <v>996.05</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>1007.6</v>
+      </c>
+      <c r="H84">
+        <v>990.80836615844942</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J84">
+        <v>983.89722327788456</v>
+      </c>
+      <c r="K84">
+        <v>948.64638507187988</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N84">
+        <v>65.932670474764706</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>3.5</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>41.650000000000091</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>8.4033613445377964E-2</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>960.5598413419923</v>
+      </c>
+      <c r="W84">
+        <v>943.01374302109787</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>17.54609832089443</v>
+      </c>
+      <c r="Y84">
+        <v>13.032718189096972</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>1009.7</v>
+      </c>
+      <c r="D85">
+        <v>1037.4000000000001</v>
+      </c>
+      <c r="E85">
+        <v>1007</v>
+      </c>
+      <c r="F85">
+        <v>1023.8</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>1022.7333333333332</v>
+      </c>
+      <c r="H85">
+        <v>1006.7708497458914</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>995.78672921613247</v>
+      </c>
+      <c r="K85">
+        <v>961.61385505590658</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N85">
+        <v>73.753615562708418</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>16.799999999999955</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>30.400000000000091</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.55263157894736525</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>970.28909652014727</v>
+      </c>
+      <c r="W85">
+        <v>948.99791020472026</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>21.291186315427012</v>
+      </c>
+      <c r="Y85">
+        <v>14.68441181436298</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>1029.9000000000001</v>
+      </c>
+      <c r="D86">
+        <v>1029.9000000000001</v>
+      </c>
+      <c r="E86">
+        <v>1008.05</v>
+      </c>
+      <c r="F86">
+        <v>1017.9</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>1018.6166666666667</v>
+      </c>
+      <c r="H86">
+        <v>1012.693758206279</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>1003.367456056992</v>
+      </c>
+      <c r="K86">
+        <v>971.93299837681627</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>69.512472533365766</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>9.8500000000000227</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>21.850000000000136</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.450800915331806</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>977.61385090166311</v>
+      </c>
+      <c r="W86">
+        <v>954.10176870807436</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>23.512082193588753</v>
+      </c>
+      <c r="Y86">
+        <v>16.449945890208134</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>1020.5</v>
+      </c>
+      <c r="D87">
+        <v>1048.9000000000001</v>
+      </c>
+      <c r="E87">
+        <v>1017.6</v>
+      </c>
+      <c r="F87">
+        <v>1039.8</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>1035.4333333333334</v>
+      </c>
+      <c r="H87">
+        <v>1024.0635457698063</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>1013.4857991554383</v>
+      </c>
+      <c r="K87">
+        <v>982.08122095974602</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>75.933618200002613</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>22.199999999999932</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>31.300000000000068</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.70926517571884606</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>987.18095076294571</v>
+      </c>
+      <c r="W87">
+        <v>960.44978584080957</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>26.731164922136145</v>
+      </c>
+      <c r="Y87">
+        <v>18.506189696593736</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>1042</v>
+      </c>
+      <c r="D88">
+        <v>1056.5</v>
+      </c>
+      <c r="E88">
+        <v>1023.65</v>
+      </c>
+      <c r="F88">
+        <v>1037.95</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>1039.3666666666668</v>
+      </c>
+      <c r="H88">
+        <v>1031.7151062182365</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>1023.0445104542298</v>
+      </c>
+      <c r="K88">
+        <v>991.31872741313578</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N88">
+        <v>74.281620963559249</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>14.300000000000068</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>32.850000000000023</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.435312024353122</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>994.99157372249249</v>
+      </c>
+      <c r="W88">
+        <v>966.19054244519407</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>28.801031277298421</v>
+      </c>
+      <c r="Y88">
+        <v>20.565158012734674</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>1045</v>
+      </c>
+      <c r="D89">
+        <v>1061.0999999999999</v>
+      </c>
+      <c r="E89">
+        <v>1040.3</v>
+      </c>
+      <c r="F89">
+        <v>1052.05</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>1051.1499999999999</v>
+      </c>
+      <c r="H89">
+        <v>1041.4325531091181</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>1031.5012859088454</v>
+      </c>
+      <c r="K89">
+        <v>1002.2034546546612</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>78.697045437148489</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>11.75</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>20.799999999999955</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.56490384615384737</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>1003.7697931498013</v>
+      </c>
+      <c r="W89">
+        <v>972.55050226406854</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>31.219290885732789</v>
+      </c>
+      <c r="Y89">
+        <v>22.695984587334298</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>1049.5</v>
+      </c>
+      <c r="D90">
+        <v>1054.95</v>
+      </c>
+      <c r="E90">
+        <v>1037.3</v>
+      </c>
+      <c r="F90">
+        <v>1047</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>1046.4166666666667</v>
+      </c>
+      <c r="H90">
+        <v>1043.9246098878925</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>1036.7121112624352</v>
+      </c>
+      <c r="K90">
+        <v>1010.0026869536254</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>73.079979004976707</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>9.7000000000000455</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>17.650000000000091</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.54957507082152945</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>1010.4205942036781</v>
+      </c>
+      <c r="W90">
+        <v>978.06527987413756</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>32.355314329540533</v>
+      </c>
+      <c r="Y90">
+        <v>24.627850535775544</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>1064.4000000000001</v>
+      </c>
+      <c r="D91">
+        <v>1064.4000000000001</v>
+      </c>
+      <c r="E91">
+        <v>1045.55</v>
+      </c>
+      <c r="F91">
+        <v>1046</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>1051.9833333333333</v>
+      </c>
+      <c r="H91">
+        <v>1047.9539716106128</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J91">
+        <v>1042.8649754263386</v>
+      </c>
+      <c r="K91">
+        <v>1017.9020898528197</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>71.811268988371737</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>0.45000000000004547</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>18.850000000000136</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>2.3872679045095078E-2</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>1015.8943489415738</v>
+      </c>
+      <c r="W91">
+        <v>983.09748136494215</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>32.796867576631598</v>
+      </c>
+      <c r="Y91">
+        <v>26.261653943946754</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>1050</v>
+      </c>
+      <c r="D92">
+        <v>1052.8499999999999</v>
+      </c>
+      <c r="E92">
+        <v>1032.0999999999999</v>
+      </c>
+      <c r="F92">
+        <v>1036.25</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>1040.3999999999999</v>
+      </c>
+      <c r="H92">
+        <v>1044.1769858053062</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>1045.0838697760412</v>
+      </c>
+      <c r="K92">
+        <v>1021.0571809966375</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>59.270666676804993</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>4.1500000000000909</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>20.75</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.2000000000000044</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>1019.025987565947</v>
+      </c>
+      <c r="W92">
+        <v>987.03470496753903</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>31.99128259840802</v>
+      </c>
+      <c r="Y92">
+        <v>27.407579674839006</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>1046.8</v>
+      </c>
+      <c r="D93">
+        <v>1057.45</v>
+      </c>
+      <c r="E93">
+        <v>1039</v>
+      </c>
+      <c r="F93">
+        <v>1050</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>1048.8166666666666</v>
+      </c>
+      <c r="H93">
+        <v>1046.4968262359864</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>1047.8318987146988</v>
+      </c>
+      <c r="K93">
+        <v>1025.0444741084959</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>68.857705688095777</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>11</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>18.450000000000045</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.59620596205961918</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>1023.7912202481091</v>
+      </c>
+      <c r="W93">
+        <v>991.69880089586945</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>32.092419352239631</v>
+      </c>
+      <c r="Y93">
+        <v>28.344547610319133</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>1050</v>
+      </c>
+      <c r="D94">
+        <v>1054.8</v>
+      </c>
+      <c r="E94">
+        <v>1045</v>
+      </c>
+      <c r="F94">
+        <v>1050</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>1049.9333333333334</v>
+      </c>
+      <c r="H94">
+        <v>1048.2150797846598</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>1049.3803656669879</v>
+      </c>
+      <c r="K94">
+        <v>1029.4790354177192</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>68.857705688095777</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>9.7999999999999545</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.5102040816326554</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>1027.8233402099384</v>
+      </c>
+      <c r="W94">
+        <v>996.01740823691614</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>31.805931973022211</v>
+      </c>
+      <c r="Y94">
+        <v>29.03682448285975</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>1050.9000000000001</v>
+      </c>
+      <c r="D95">
+        <v>1063.7</v>
+      </c>
+      <c r="E95">
+        <v>1043</v>
+      </c>
+      <c r="F95">
+        <v>1050</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>1052.2333333333333</v>
+      </c>
+      <c r="H95">
+        <v>1050.2242065589967</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>1052.5625066298794</v>
+      </c>
+      <c r="K95">
+        <v>1032.4836942137815</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>68.857705688095777</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>20.700000000000045</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.33816425120772875</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>1031.235134023794</v>
+      </c>
+      <c r="W95">
+        <v>1000.0161187378853</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>31.219015285908654</v>
+      </c>
+      <c r="Y95">
+        <v>29.473262643469532</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>1049.8499999999999</v>
+      </c>
+      <c r="D96">
+        <v>1069.7</v>
+      </c>
+      <c r="E96">
+        <v>1047.9000000000001</v>
+      </c>
+      <c r="F96">
+        <v>1063</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>1060.2</v>
+      </c>
+      <c r="H96">
+        <v>1055.2121032794985</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J96">
+        <v>1056.3708384899062</v>
+      </c>
+      <c r="K96">
+        <v>1035.9095399440523</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N96">
+        <v>78.292882504950683</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>15.099999999999909</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>21.799999999999955</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.69266055045871289</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>1036.1220364816718</v>
+      </c>
+      <c r="W96">
+        <v>1004.6815914239679</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>31.440445057703869</v>
+      </c>
+      <c r="Y96">
+        <v>29.866699126316398</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>1062.95</v>
+      </c>
+      <c r="D97">
+        <v>1067.5</v>
+      </c>
+      <c r="E97">
+        <v>1043.2</v>
+      </c>
+      <c r="F97">
+        <v>1048.5</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>1053.0666666666666</v>
+      </c>
+      <c r="H97">
+        <v>1054.1393849730825</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>1058.8439854921492</v>
+      </c>
+      <c r="K97">
+        <v>1037.5296421787073</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>55.042419058602036</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>5.2999999999999545</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>24.299999999999955</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.2181069958847722</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>1038.0263385614146</v>
+      </c>
+      <c r="W97">
+        <v>1007.927399466637</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>30.09893909477762</v>
+      </c>
+      <c r="Y97">
+        <v>29.913147120008642</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>1055</v>
+      </c>
+      <c r="D98">
+        <v>1067</v>
+      </c>
+      <c r="E98">
+        <v>1052</v>
+      </c>
+      <c r="F98">
+        <v>1056.4000000000001</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>1058.4666666666667</v>
+      </c>
+      <c r="H98">
+        <v>1056.3030258198746</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>1060.6564331605605</v>
+      </c>
+      <c r="K98">
+        <v>1040.7452772501056</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>62.605317717400069</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>4.4000000000000909</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>15</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.29333333333333939</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>1040.8530557058123</v>
+      </c>
+      <c r="W98">
+        <v>1011.5179624691083</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>29.335093236703983</v>
+      </c>
+      <c r="Y98">
+        <v>29.797536343347709</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>1058.7</v>
+      </c>
+      <c r="D99">
+        <v>1076</v>
+      </c>
+      <c r="E99">
+        <v>1054</v>
+      </c>
+      <c r="F99">
+        <v>1074.45</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>1068.1499999999999</v>
+      </c>
+      <c r="H99">
+        <v>1062.2265129099374</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>1064.0661146804359</v>
+      </c>
+      <c r="K99">
+        <v>1043.6907711945266</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N99">
+        <v>74.740951474091105</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>20.450000000000045</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>22</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.92954545454545656</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V99">
+        <v>1046.0218163664565</v>
+      </c>
+      <c r="W99">
+        <v>1016.179594878804</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>29.842221487652523</v>
+      </c>
+      <c r="Y99">
+        <v>29.806473372208671</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>1080</v>
+      </c>
+      <c r="D100">
+        <v>1080</v>
+      </c>
+      <c r="E100">
+        <v>1060.5</v>
+      </c>
+      <c r="F100">
+        <v>1063</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>1067.8333333333333</v>
+      </c>
+      <c r="H100">
+        <v>1065.0299231216354</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>1067.6069780847836</v>
+      </c>
+      <c r="K100">
+        <v>1047.4261553735207</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>59.444166859390037</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>2.5</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>19.5</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.12820512820512819</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>1048.6338446177708</v>
+      </c>
+      <c r="W100">
+        <v>1019.6477730359296</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>28.986071581841202</v>
+      </c>
+      <c r="Y100">
+        <v>29.642393014135177</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>1062.8</v>
+      </c>
+      <c r="D101">
+        <v>1067.75</v>
+      </c>
+      <c r="E101">
+        <v>1047.8499999999999</v>
+      </c>
+      <c r="F101">
+        <v>1053</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>1056.2</v>
+      </c>
+      <c r="H101">
+        <v>1060.6149615608178</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>1067.6387607326094</v>
+      </c>
+      <c r="K101">
+        <v>1047.5203430682939</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>48.588029242975573</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>5.1500000000000909</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>19.900000000000091</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.25879396984924963</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>1049.3055608304214</v>
+      </c>
+      <c r="W101">
+        <v>1022.1183083666015</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>27.187252463819959</v>
+      </c>
+      <c r="Y101">
+        <v>29.151364904072132</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>1050</v>
+      </c>
+      <c r="D102">
+        <v>1055.2</v>
+      </c>
+      <c r="E102">
+        <v>1010</v>
+      </c>
+      <c r="F102">
+        <v>1014.05</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>1026.4166666666667</v>
+      </c>
+      <c r="H102">
+        <v>1043.5158141137422</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>1064.8745916809185</v>
+      </c>
+      <c r="K102">
+        <v>1039.1824890531175</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>25.719280989698369</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>4.0499999999999545</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>45.200000000000045</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>8.9601769911503329E-2</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>1043.881628394972</v>
+      </c>
+      <c r="W102">
+        <v>1021.5206558950014</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>22.360972499970671</v>
+      </c>
+      <c r="Y102">
+        <v>27.793286423251839</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>1019</v>
+      </c>
+      <c r="D103">
+        <v>1019</v>
+      </c>
+      <c r="E103">
+        <v>972.95</v>
+      </c>
+      <c r="F103">
+        <v>990</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>993.98333333333323</v>
+      </c>
+      <c r="H103">
+        <v>1018.7495737235377</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>1054.6802379740477</v>
+      </c>
+      <c r="K103">
+        <v>1024.4641581524247</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>18.865860716168218</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>17.049999999999955</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>46.049999999999955</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.37024972855591687</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>1035.5921471034378</v>
+      </c>
+      <c r="W103">
+        <v>1019.1857924953716</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>16.406354608066181</v>
+      </c>
+      <c r="Y103">
+        <v>25.515900060214708</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>994.4</v>
+      </c>
+      <c r="D104">
+        <v>1020.8</v>
+      </c>
+      <c r="E104">
+        <v>988.45</v>
+      </c>
+      <c r="F104">
+        <v>1007.5</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>1005.5833333333334</v>
+      </c>
+      <c r="H104">
+        <v>1012.1664535284356</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>1047.1512962020372</v>
+      </c>
+      <c r="K104">
+        <v>1016.4610118963303</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>34.694139150301943</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>19.049999999999955</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>32.349999999999909</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.58887171561051033</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>1031.2702783182935</v>
+      </c>
+      <c r="W104">
+        <v>1018.3201782364553</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>12.950100081838286</v>
+      </c>
+      <c r="Y104">
+        <v>23.002740064539424</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>1018</v>
+      </c>
+      <c r="D105">
+        <v>1018</v>
+      </c>
+      <c r="E105">
+        <v>978.8</v>
+      </c>
+      <c r="F105">
+        <v>986.7</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>994.5</v>
+      </c>
+      <c r="H105">
+        <v>1003.3332267642178</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>1040.6732303793622</v>
+      </c>
+      <c r="K105">
+        <v>1008.0918981415903</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>26.897919912062303</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>7.9000000000000909</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>39.200000000000045</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.20153061224490004</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V105">
+        <v>1024.4133124231714</v>
+      </c>
+      <c r="W105">
+        <v>1015.9779428115327</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>8.4353696116387482</v>
+      </c>
+      <c r="Y105">
+        <v>20.089265973959289</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG105" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>994.9</v>
+      </c>
+      <c r="D106">
+        <v>1003.35</v>
+      </c>
+      <c r="E106">
+        <v>976.65</v>
+      </c>
+      <c r="F106">
+        <v>980</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>986.66666666666663</v>
+      </c>
+      <c r="H106">
+        <v>994.99994671544221</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>1032.3791791839483</v>
+      </c>
+      <c r="K106">
+        <v>1001.1048096656813</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>24.666143599915916</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>3.3500000000000227</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>26.700000000000045</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.12546816479400813</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V106">
+        <v>1017.5804951272989</v>
+      </c>
+      <c r="W106">
+        <v>1013.3129100106784</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>4.2675851166205803</v>
+      </c>
+      <c r="Y106">
+        <v>16.924929802491548</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD106">
+        <f t="shared" si="35"/>
+        <v>1000.3000000000001</v>
+      </c>
+      <c r="AE106">
+        <f t="shared" si="36"/>
+        <v>993.15000000000009</v>
+      </c>
+      <c r="AF106">
+        <f t="shared" si="37"/>
+        <v>990</v>
+      </c>
+      <c r="AG106">
+        <f t="shared" si="38"/>
+        <v>986.85</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>985</v>
+      </c>
+      <c r="D107">
+        <v>1005.95</v>
+      </c>
+      <c r="E107">
+        <v>981.2</v>
+      </c>
+      <c r="F107">
+        <v>987.9</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>991.68333333333339</v>
+      </c>
+      <c r="H107">
+        <v>993.34164002438774</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J107">
+        <v>1026.506028254182</v>
+      </c>
+      <c r="K107">
+        <v>996.68151862886327</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N107">
+        <v>32.874931106134689</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>6.6999999999999318</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>24.75</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.27070707070706795</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>1013.0142651077144</v>
+      </c>
+      <c r="W107">
+        <v>1011.4304722321097</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>1.5837928756047859</v>
+      </c>
+      <c r="Y107">
+        <v>13.856702417114196</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
